--- a/docs/drag_calculation.xlsx
+++ b/docs/drag_calculation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="177" documentId="8_{3C86B5CA-896A-45CA-BE3B-66BAFB7237F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98FDF327-F886-426F-AEF7-8956A716E432}"/>
+  <xr:revisionPtr revIDLastSave="182" documentId="8_{3C86B5CA-896A-45CA-BE3B-66BAFB7237F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB109702-DD56-4BE6-BBD6-4255B57BF06F}"/>
   <bookViews>
     <workbookView xWindow="1890" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{F0786625-F082-4D00-A3E9-2B4B376828DC}"/>
   </bookViews>
@@ -205,12 +205,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -225,9 +231,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,7 +575,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C858591-FA35-42F6-A106-77116D79D8FD}">
   <dimension ref="C1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -970,11 +979,11 @@
       <c r="C32">
         <v>30</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <f>C32*0.44704</f>
         <v>13.411199999999999</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="2">
         <f>F$28*D32*D32</f>
         <v>4.9019364791973191E-2</v>
       </c>
@@ -987,12 +996,12 @@
       <c r="C33">
         <v>50</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
         <f>C33*0.44704</f>
         <v>22.352</v>
       </c>
-      <c r="F33" s="1">
-        <f t="shared" ref="F33:F34" si="0">F$28*D33*D33</f>
+      <c r="F33" s="2">
+        <f t="shared" ref="F33:F35" si="0">F$28*D33*D33</f>
         <v>0.13616490219992555</v>
       </c>
       <c r="K33">
@@ -1004,17 +1013,34 @@
       <c r="C34">
         <v>70</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
         <f>C34*0.44704</f>
         <v>31.2928</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="2">
         <f t="shared" si="0"/>
         <v>0.26688320831185408</v>
       </c>
       <c r="K34">
         <f>K$28*D34*D34</f>
         <v>0.25502234188304979</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>90</v>
+      </c>
+      <c r="D35" s="1">
+        <f>C35*0.44704</f>
+        <v>40.233600000000003</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="0"/>
+        <v>0.4411742831277588</v>
+      </c>
+      <c r="K35">
+        <f>K$28*D35*D35</f>
+        <v>0.42156754474544972</v>
       </c>
     </row>
     <row r="38" spans="3:11" x14ac:dyDescent="0.25">
